--- a/DS Time log.xlsx
+++ b/DS Time log.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/reesebottorff/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/reesebottorff/Desktop/DS_160/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ECFA155-D22E-7B40-8AD9-33FB7F45AF01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E87925-8E78-4144-BB27-CCF85BE941AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{EC104675-1C00-ED45-B546-6B597FB06C5B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="39">
   <si>
     <t>Initial</t>
   </si>
@@ -129,6 +129,30 @@
   </si>
   <si>
     <t>Look into plant slides</t>
+  </si>
+  <si>
+    <t>Chapter 3 HW</t>
+  </si>
+  <si>
+    <t>In class assignment</t>
+  </si>
+  <si>
+    <t>Finish Pandas notebook</t>
+  </si>
+  <si>
+    <t>Lecture over Chapter 5</t>
+  </si>
+  <si>
+    <t>Chapter 2 Quiz</t>
+  </si>
+  <si>
+    <t>Completing balance sheet</t>
+  </si>
+  <si>
+    <t>Autobiography paper</t>
+  </si>
+  <si>
+    <t>Quiz and Lecture</t>
   </si>
 </sst>
 </file>
@@ -512,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C34ED786-4C4F-5948-88C7-7C94F6672EA1}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F28" sqref="F27:F28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -892,8 +916,266 @@
       <c r="C22" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="D22" s="2">
+        <v>60</v>
+      </c>
       <c r="E22" s="1" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="3">
+        <v>45182</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="2">
+        <v>50</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="3">
+        <v>45182</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="2">
+        <v>75</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="3">
+        <v>45182</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="2">
+        <v>30</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="3">
+        <v>45183</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="2">
+        <v>50</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="3">
+        <v>45183</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="2">
+        <v>75</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="3">
+        <v>45183</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="2">
+        <v>75</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="3">
+        <v>45184</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="2">
+        <v>50</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="3">
+        <v>45184</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="2">
+        <v>90</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="3">
+        <v>45184</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="2">
+        <v>10</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="3">
+        <v>45187</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="2">
+        <v>50</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="3">
+        <v>45187</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="2">
+        <v>75</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="3">
+        <v>45187</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="2">
+        <v>60</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="3">
+        <v>45188</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="2">
+        <v>50</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="3">
+        <v>45188</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" s="2">
+        <v>75</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="3">
+        <v>45188</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="2">
+        <v>75</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/DS Time log.xlsx
+++ b/DS Time log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/reesebottorff/Desktop/DS_160/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E87925-8E78-4144-BB27-CCF85BE941AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9008190-DD56-1243-B819-8879D4D7F2AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{EC104675-1C00-ED45-B546-6B597FB06C5B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="52">
   <si>
     <t>Initial</t>
   </si>
@@ -153,6 +153,45 @@
   </si>
   <si>
     <t>Quiz and Lecture</t>
+  </si>
+  <si>
+    <t>Lecture over Chapter 6</t>
+  </si>
+  <si>
+    <t>Look at bacteria</t>
+  </si>
+  <si>
+    <t>Review for test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assignment 1 </t>
+  </si>
+  <si>
+    <t>Lecture over Photosynthesis</t>
+  </si>
+  <si>
+    <t>Working with MatPlotLib</t>
+  </si>
+  <si>
+    <t>Study for Finance test</t>
+  </si>
+  <si>
+    <t>Finish Chapter 5 lecture</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Work on group project</t>
+  </si>
+  <si>
+    <t>Finish MatPlotLib</t>
+  </si>
+  <si>
+    <t>Lecture over Chapter 8</t>
+  </si>
+  <si>
+    <t>Second part of bacteria lab</t>
   </si>
 </sst>
 </file>
@@ -536,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C34ED786-4C4F-5948-88C7-7C94F6672EA1}">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1175,7 +1214,262 @@
         <v>75</v>
       </c>
       <c r="E37" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="3">
+        <v>45188</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="2">
+        <v>60</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="3">
+        <v>45189</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="2">
+        <v>50</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="3">
+        <v>45189</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" s="2">
+        <v>75</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="3">
+        <v>45189</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" s="2">
+        <v>60</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" s="3">
+        <v>45190</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" s="2">
+        <v>50</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" s="3">
+        <v>45190</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" s="2">
+        <v>75</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" s="3">
+        <v>45190</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="2">
+        <v>75</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" s="3">
+        <v>45193</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="2">
+        <v>240</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" s="3">
+        <v>45194</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="2">
+        <v>50</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" s="3">
+        <v>45194</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" s="2">
+        <v>20</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" s="3">
+        <v>45194</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" s="2">
+        <v>60</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" s="3">
+        <v>45195</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" s="2">
+        <v>50</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" s="3">
+        <v>45195</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D50" s="2">
+        <v>75</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51" s="3">
+        <v>45195</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="2">
+        <v>75</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" s="3">
+        <v>45195</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52" s="2">
+        <v>60</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
